--- a/RIRCD/caneva RIRCD Djelfa 2018.xlsx
+++ b/RIRCD/caneva RIRCD Djelfa 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>secteur</t>
   </si>
@@ -44,21 +44,12 @@
     <t>Le Déclarant</t>
   </si>
   <si>
-    <t>Privé</t>
-  </si>
-  <si>
     <t>Le chargé de la validation</t>
   </si>
   <si>
     <t>ETAT NOMINATIF DU PERSONNEL MEDICAL DESIGNE POUR LA GESTION DU REGISTRE DE  SUIVI DES PATIENTS DIALYSES</t>
   </si>
   <si>
-    <t> Dr Tiba Redha</t>
-  </si>
-  <si>
-    <t> Médecin Inspecteur</t>
-  </si>
-  <si>
     <t>Médecin Généraliste</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>EPH El Idrissia</t>
   </si>
   <si>
-    <t> Médecin Généraliste</t>
-  </si>
-  <si>
     <t>Dr Kasse Kaddour</t>
   </si>
   <si>
@@ -101,27 +89,15 @@
     <t>Centre        El Chifaa     El Hadith</t>
   </si>
   <si>
-    <t>Dr Djenna Abdel Kader</t>
-  </si>
-  <si>
     <t>Dr Ben Messaoud Ali</t>
   </si>
   <si>
-    <t> Dr  Koriche Abd El Kader</t>
-  </si>
-  <si>
-    <t> Néphrologue</t>
-  </si>
-  <si>
     <t>Centre Ben Salem</t>
   </si>
   <si>
     <t>Dr Khalefi Bouhaous</t>
   </si>
   <si>
-    <t>Dr  Khalefi Bouhaous</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le chargé de la validation </t>
   </si>
   <si>
@@ -138,6 +114,15 @@
   </si>
   <si>
     <t>Dr Zerrarka  Mohamed</t>
+  </si>
+  <si>
+    <t>Médecin Inspecteur</t>
+  </si>
+  <si>
+    <t>Dr  Koriche Abd El Kader</t>
+  </si>
+  <si>
+    <t>Dr Tiba Redha</t>
   </si>
 </sst>
 </file>
@@ -187,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -218,44 +203,18 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -428,105 +387,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -823,29 +770,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="12" customWidth="1"/>
     <col min="4" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:6" ht="15.75" thickBot="1">
@@ -866,248 +813,233 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" thickBot="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="32" t="s">
-        <v>39</v>
+      <c r="B8" s="20"/>
+      <c r="C8" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B10" s="28"/>
-      <c r="C10" s="31" t="s">
-        <v>36</v>
+      <c r="B10" s="21"/>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="15" t="s">
-        <v>18</v>
+      <c r="B12" s="21"/>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B15" s="28"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B16" s="28"/>
-      <c r="C16" s="15" t="s">
-        <v>24</v>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" thickBot="1">
-      <c r="B17" s="29"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>27</v>
+      <c r="B18" s="20"/>
+      <c r="C18" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1">
       <c r="B21" s="17"/>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="C24" s="25"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B7:B17"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B7:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
